--- a/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_FAO.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_FAO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llohi\Documents\WB\Data Portal\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF1A928-7072-4E69-BF32-FA8FC9AEC8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29CE4F-BC9C-4C40-923C-29D57BBF5DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0C2090A7-37AE-4904-BFD0-BE4B05D4EA94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{0C2090A7-37AE-4904-BFD0-BE4B05D4EA94}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="545">
   <si>
     <t>FAO_code</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Congo, Dem. Rep.</t>
   </si>
   <si>
-    <t>ZAR</t>
-  </si>
-  <si>
     <t>COG</t>
   </si>
   <si>
@@ -1226,9 +1223,6 @@
     <t>Montenegro</t>
   </si>
   <si>
-    <t>MNT</t>
-  </si>
-  <si>
     <t>MNG</t>
   </si>
   <si>
@@ -1443,9 +1437,6 @@
   </si>
   <si>
     <t>Romania</t>
-  </si>
-  <si>
-    <t>ROM</t>
   </si>
   <si>
     <t>RUS</t>
@@ -1735,7 +1726,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2033,13 +2024,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDB0202-9AD7-41A7-9A9F-33202EE658ED}">
   <dimension ref="A1:D246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="G241" sqref="G241"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2053,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2081,7 +2072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2095,7 +2086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2109,7 +2100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2123,7 +2114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2137,7 +2128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2151,7 +2142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2165,7 +2156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2179,7 +2170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2193,7 +2184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2207,7 +2198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2221,7 +2212,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2235,7 +2226,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2249,7 +2240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2263,7 +2254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2277,7 +2268,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2291,7 +2282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2305,7 +2296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2319,7 +2310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2333,7 +2324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2347,7 +2338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2361,7 +2352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2375,7 +2366,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2389,7 +2380,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2403,7 +2394,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2417,7 +2408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2431,7 +2422,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2445,7 +2436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2459,7 +2450,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2470,3017 +2461,3017 @@
         <v>71</v>
       </c>
       <c r="D31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>75</v>
       </c>
-      <c r="D32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>77</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
         <v>77</v>
       </c>
-      <c r="D33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>79</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
         <v>79</v>
       </c>
-      <c r="D34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>82</v>
       </c>
-      <c r="D35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>84</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
         <v>84</v>
       </c>
-      <c r="D36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>86</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
         <v>86</v>
       </c>
-      <c r="D37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>88</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
         <v>88</v>
       </c>
-      <c r="D38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>90</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
         <v>90</v>
       </c>
-      <c r="D39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>92</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" t="s">
         <v>92</v>
       </c>
-      <c r="D40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>94</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" t="s">
         <v>94</v>
       </c>
-      <c r="D41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>96</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
         <v>96</v>
       </c>
-      <c r="D42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>98</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
         <v>98</v>
       </c>
-      <c r="D43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>101</v>
       </c>
-      <c r="D44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>102</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>103</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
         <v>103</v>
       </c>
-      <c r="D45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>105</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
         <v>105</v>
       </c>
-      <c r="D46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>107</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
         <v>107</v>
       </c>
-      <c r="D47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>109</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" t="s">
         <v>109</v>
       </c>
-      <c r="D48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>111</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
         <v>111</v>
       </c>
-      <c r="D49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>113</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
         <v>113</v>
       </c>
-      <c r="D50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>115</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" t="s">
         <v>115</v>
       </c>
-      <c r="D51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>117</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" t="s">
         <v>117</v>
       </c>
-      <c r="D52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>119</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
         <v>119</v>
       </c>
-      <c r="D53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>121</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" t="s">
         <v>121</v>
       </c>
-      <c r="D54" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>124</v>
       </c>
-      <c r="D55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>125</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>126</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" t="s">
         <v>126</v>
       </c>
-      <c r="D56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>128</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" t="s">
         <v>128</v>
       </c>
-      <c r="D57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>131</v>
       </c>
-      <c r="D58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>132</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>133</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
         <v>133</v>
       </c>
-      <c r="D59" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>135</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" t="s">
         <v>135</v>
       </c>
-      <c r="D60" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>137</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
         <v>137</v>
       </c>
-      <c r="D61" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>139</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
         <v>139</v>
       </c>
-      <c r="D62" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>140</v>
-      </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>141</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" t="s">
         <v>141</v>
       </c>
-      <c r="D63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>142</v>
-      </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>143</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" t="s">
         <v>143</v>
       </c>
-      <c r="D64" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>144</v>
-      </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>145</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
         <v>145</v>
       </c>
-      <c r="D65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>146</v>
-      </c>
-      <c r="B66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>148</v>
       </c>
-      <c r="D66" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>149</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>150</v>
       </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" t="s">
         <v>150</v>
       </c>
-      <c r="D67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>151</v>
-      </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>152</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" t="s">
         <v>152</v>
       </c>
-      <c r="D68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>154</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" t="s">
         <v>154</v>
       </c>
-      <c r="D69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>155</v>
-      </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>156</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" t="s">
         <v>156</v>
       </c>
-      <c r="D70" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>158</v>
       </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" t="s">
         <v>158</v>
       </c>
-      <c r="D71" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>159</v>
-      </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>160</v>
       </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" t="s">
         <v>160</v>
       </c>
-      <c r="D72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>161</v>
-      </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>162</v>
       </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" t="s">
         <v>162</v>
       </c>
-      <c r="D73" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>163</v>
-      </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>164</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" t="s">
         <v>164</v>
       </c>
-      <c r="D74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>165</v>
-      </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>166</v>
       </c>
-      <c r="C75" t="s">
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" t="s">
         <v>166</v>
       </c>
-      <c r="D75" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>167</v>
-      </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>168</v>
       </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" t="s">
         <v>168</v>
       </c>
-      <c r="D76" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" t="s">
-        <v>170</v>
-      </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>171</v>
       </c>
-      <c r="D77" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
         <v>172</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>173</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>174</v>
       </c>
-      <c r="D78" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
         <v>175</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>176</v>
       </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" t="s">
         <v>176</v>
       </c>
-      <c r="D79" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>177</v>
-      </c>
-      <c r="B80" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>178</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" t="s">
         <v>178</v>
       </c>
-      <c r="D80" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>179</v>
-      </c>
-      <c r="B81" t="s">
-        <v>180</v>
-      </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>181</v>
       </c>
-      <c r="D81" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
         <v>182</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>183</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" t="s">
+        <v>184</v>
+      </c>
+      <c r="D83" t="s">
         <v>183</v>
       </c>
-      <c r="D82" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>184</v>
-      </c>
-      <c r="B83" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>185</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" t="s">
         <v>185</v>
       </c>
-      <c r="D83" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>186</v>
-      </c>
-      <c r="B84" t="s">
-        <v>187</v>
-      </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>188</v>
       </c>
-      <c r="D84" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
         <v>189</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>190</v>
       </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86" t="s">
         <v>190</v>
       </c>
-      <c r="D85" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>191</v>
-      </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87" t="s">
         <v>192</v>
       </c>
-      <c r="D86" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>193</v>
-      </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>194</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" t="s">
+        <v>195</v>
+      </c>
+      <c r="D88" t="s">
         <v>194</v>
       </c>
-      <c r="D87" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>195</v>
-      </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>196</v>
       </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" t="s">
         <v>196</v>
       </c>
-      <c r="D88" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>197</v>
-      </c>
-      <c r="B89" t="s">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>198</v>
       </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" t="s">
+        <v>199</v>
+      </c>
+      <c r="D90" t="s">
         <v>198</v>
       </c>
-      <c r="D89" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>199</v>
-      </c>
-      <c r="B90" t="s">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>200</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" t="s">
         <v>200</v>
       </c>
-      <c r="D90" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>201</v>
-      </c>
-      <c r="B91" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>202</v>
       </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" t="s">
         <v>202</v>
       </c>
-      <c r="D91" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>203</v>
-      </c>
-      <c r="B92" t="s">
-        <v>204</v>
-      </c>
-      <c r="C92" t="s">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>205</v>
       </c>
-      <c r="D92" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
         <v>206</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>207</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>208</v>
       </c>
-      <c r="D93" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
         <v>209</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>209</v>
+      </c>
+      <c r="D94" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>210</v>
       </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" t="s">
+        <v>211</v>
+      </c>
+      <c r="D95" t="s">
         <v>210</v>
       </c>
-      <c r="D94" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>211</v>
-      </c>
-      <c r="B95" t="s">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>212</v>
       </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>213</v>
+      </c>
+      <c r="C96" t="s">
+        <v>213</v>
+      </c>
+      <c r="D96" t="s">
         <v>212</v>
       </c>
-      <c r="D95" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>213</v>
-      </c>
-      <c r="B96" t="s">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>214</v>
       </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" t="s">
         <v>214</v>
       </c>
-      <c r="D96" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>215</v>
-      </c>
-      <c r="B97" t="s">
-        <v>216</v>
-      </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>217</v>
       </c>
-      <c r="D97" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
         <v>218</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
+        <v>218</v>
+      </c>
+      <c r="D98" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>219</v>
       </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" t="s">
+        <v>220</v>
+      </c>
+      <c r="D99" t="s">
         <v>219</v>
       </c>
-      <c r="D98" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>220</v>
-      </c>
-      <c r="B99" t="s">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>221</v>
       </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" t="s">
+        <v>223</v>
+      </c>
+      <c r="D100" t="s">
         <v>221</v>
       </c>
-      <c r="D99" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>222</v>
-      </c>
-      <c r="B100" t="s">
-        <v>223</v>
-      </c>
-      <c r="C100" t="s">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>224</v>
       </c>
-      <c r="D100" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
         <v>225</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>226</v>
       </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>227</v>
+      </c>
+      <c r="C102" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" t="s">
         <v>226</v>
       </c>
-      <c r="D101" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>227</v>
-      </c>
-      <c r="B102" t="s">
-        <v>228</v>
-      </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>229</v>
       </c>
-      <c r="D102" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
         <v>230</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>230</v>
+      </c>
+      <c r="D103" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>231</v>
       </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>232</v>
+      </c>
+      <c r="C104" t="s">
+        <v>232</v>
+      </c>
+      <c r="D104" t="s">
         <v>231</v>
       </c>
-      <c r="D103" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>232</v>
-      </c>
-      <c r="B104" t="s">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>233</v>
       </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" t="s">
+        <v>234</v>
+      </c>
+      <c r="D105" t="s">
         <v>233</v>
       </c>
-      <c r="D104" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>234</v>
-      </c>
-      <c r="B105" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>235</v>
       </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>236</v>
+      </c>
+      <c r="C106" t="s">
+        <v>236</v>
+      </c>
+      <c r="D106" t="s">
         <v>235</v>
       </c>
-      <c r="D105" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>236</v>
-      </c>
-      <c r="B106" t="s">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>237</v>
       </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C107" t="s">
+        <v>238</v>
+      </c>
+      <c r="D107" t="s">
         <v>237</v>
       </c>
-      <c r="D106" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>238</v>
-      </c>
-      <c r="B107" t="s">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>239</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>240</v>
+      </c>
+      <c r="C108" t="s">
+        <v>241</v>
+      </c>
+      <c r="D108" t="s">
         <v>239</v>
       </c>
-      <c r="D107" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>240</v>
-      </c>
-      <c r="B108" t="s">
-        <v>241</v>
-      </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>242</v>
       </c>
-      <c r="D108" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
         <v>243</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>243</v>
+      </c>
+      <c r="D109" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>244</v>
       </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" t="s">
+        <v>245</v>
+      </c>
+      <c r="D110" t="s">
         <v>244</v>
       </c>
-      <c r="D109" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>245</v>
-      </c>
-      <c r="B110" t="s">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>246</v>
       </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>247</v>
+      </c>
+      <c r="C111" t="s">
+        <v>247</v>
+      </c>
+      <c r="D111" t="s">
         <v>246</v>
       </c>
-      <c r="D110" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>247</v>
-      </c>
-      <c r="B111" t="s">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>248</v>
       </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>249</v>
+      </c>
+      <c r="C112" t="s">
+        <v>249</v>
+      </c>
+      <c r="D112" t="s">
         <v>248</v>
       </c>
-      <c r="D111" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>249</v>
-      </c>
-      <c r="B112" t="s">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>250</v>
       </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>251</v>
+      </c>
+      <c r="C113" t="s">
+        <v>251</v>
+      </c>
+      <c r="D113" t="s">
         <v>250</v>
       </c>
-      <c r="D112" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>251</v>
-      </c>
-      <c r="B113" t="s">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>252</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>253</v>
+      </c>
+      <c r="C114" t="s">
+        <v>253</v>
+      </c>
+      <c r="D114" t="s">
         <v>252</v>
       </c>
-      <c r="D113" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>253</v>
-      </c>
-      <c r="B114" t="s">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>254</v>
       </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>255</v>
+      </c>
+      <c r="C115" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" t="s">
         <v>254</v>
       </c>
-      <c r="D114" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>255</v>
-      </c>
-      <c r="B115" t="s">
-        <v>256</v>
-      </c>
-      <c r="C115" t="s">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>257</v>
       </c>
-      <c r="D115" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B116" t="s">
         <v>258</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
+        <v>258</v>
+      </c>
+      <c r="D116" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>259</v>
       </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>260</v>
+      </c>
+      <c r="C117" t="s">
+        <v>260</v>
+      </c>
+      <c r="D117" t="s">
         <v>259</v>
       </c>
-      <c r="D116" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>260</v>
-      </c>
-      <c r="B117" t="s">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>261</v>
       </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>262</v>
+      </c>
+      <c r="C118" t="s">
+        <v>262</v>
+      </c>
+      <c r="D118" t="s">
         <v>261</v>
       </c>
-      <c r="D117" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>262</v>
-      </c>
-      <c r="B118" t="s">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>263</v>
       </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>264</v>
+      </c>
+      <c r="C119" t="s">
+        <v>265</v>
+      </c>
+      <c r="D119" t="s">
         <v>263</v>
       </c>
-      <c r="D118" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>264</v>
-      </c>
-      <c r="B119" t="s">
-        <v>265</v>
-      </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>266</v>
       </c>
-      <c r="D119" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
         <v>267</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
+        <v>267</v>
+      </c>
+      <c r="D120" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>268</v>
       </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" t="s">
+        <v>269</v>
+      </c>
+      <c r="D121" t="s">
         <v>268</v>
       </c>
-      <c r="D120" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>269</v>
-      </c>
-      <c r="B121" t="s">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>270</v>
       </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" t="s">
+        <v>271</v>
+      </c>
+      <c r="D122" t="s">
         <v>270</v>
       </c>
-      <c r="D121" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>271</v>
-      </c>
-      <c r="B122" t="s">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>272</v>
       </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" t="s">
+        <v>273</v>
+      </c>
+      <c r="D123" t="s">
         <v>272</v>
       </c>
-      <c r="D122" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>273</v>
-      </c>
-      <c r="B123" t="s">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>274</v>
       </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
+        <v>275</v>
+      </c>
+      <c r="C124" t="s">
+        <v>275</v>
+      </c>
+      <c r="D124" t="s">
         <v>274</v>
       </c>
-      <c r="D123" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>275</v>
-      </c>
-      <c r="B124" t="s">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>276</v>
       </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125" t="s">
+        <v>277</v>
+      </c>
+      <c r="D125" t="s">
         <v>276</v>
       </c>
-      <c r="D124" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>277</v>
-      </c>
-      <c r="B125" t="s">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>278</v>
       </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>279</v>
+      </c>
+      <c r="C126" t="s">
+        <v>280</v>
+      </c>
+      <c r="D126" t="s">
         <v>278</v>
       </c>
-      <c r="D125" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>279</v>
-      </c>
-      <c r="B126" t="s">
-        <v>280</v>
-      </c>
-      <c r="C126" t="s">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>281</v>
       </c>
-      <c r="D126" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B127" t="s">
         <v>282</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
+        <v>282</v>
+      </c>
+      <c r="D127" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>283</v>
       </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>284</v>
+      </c>
+      <c r="C128" t="s">
+        <v>284</v>
+      </c>
+      <c r="D128" t="s">
         <v>283</v>
       </c>
-      <c r="D127" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>284</v>
-      </c>
-      <c r="B128" t="s">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>285</v>
       </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>286</v>
+      </c>
+      <c r="C129" t="s">
+        <v>287</v>
+      </c>
+      <c r="D129" t="s">
         <v>285</v>
       </c>
-      <c r="D128" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>286</v>
-      </c>
-      <c r="B129" t="s">
-        <v>287</v>
-      </c>
-      <c r="C129" t="s">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>288</v>
       </c>
-      <c r="D129" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B130" t="s">
         <v>289</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>289</v>
+      </c>
+      <c r="D130" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>290</v>
       </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>291</v>
+      </c>
+      <c r="C131" t="s">
+        <v>291</v>
+      </c>
+      <c r="D131" t="s">
         <v>290</v>
       </c>
-      <c r="D130" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>291</v>
-      </c>
-      <c r="B131" t="s">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>292</v>
       </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
+        <v>293</v>
+      </c>
+      <c r="C132" t="s">
+        <v>293</v>
+      </c>
+      <c r="D132" t="s">
         <v>292</v>
       </c>
-      <c r="D131" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>293</v>
-      </c>
-      <c r="B132" t="s">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>294</v>
       </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133" t="s">
+        <v>296</v>
+      </c>
+      <c r="D133" t="s">
         <v>294</v>
       </c>
-      <c r="D132" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>295</v>
-      </c>
-      <c r="B133" t="s">
-        <v>296</v>
-      </c>
-      <c r="C133" t="s">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>297</v>
       </c>
-      <c r="D133" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B134" t="s">
         <v>298</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
+        <v>298</v>
+      </c>
+      <c r="D134" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>299</v>
       </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
+        <v>300</v>
+      </c>
+      <c r="C135" t="s">
+        <v>300</v>
+      </c>
+      <c r="D135" t="s">
         <v>299</v>
       </c>
-      <c r="D134" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>300</v>
-      </c>
-      <c r="B135" t="s">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>301</v>
       </c>
-      <c r="C135" t="s">
+      <c r="B136" t="s">
+        <v>302</v>
+      </c>
+      <c r="C136" t="s">
+        <v>302</v>
+      </c>
+      <c r="D136" t="s">
         <v>301</v>
       </c>
-      <c r="D135" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>302</v>
-      </c>
-      <c r="B136" t="s">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>303</v>
       </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>304</v>
+      </c>
+      <c r="C137" t="s">
+        <v>305</v>
+      </c>
+      <c r="D137" t="s">
         <v>303</v>
       </c>
-      <c r="D136" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>304</v>
-      </c>
-      <c r="B137" t="s">
-        <v>305</v>
-      </c>
-      <c r="C137" t="s">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>306</v>
       </c>
-      <c r="D137" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B138" t="s">
         <v>307</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
+        <v>307</v>
+      </c>
+      <c r="D138" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>308</v>
       </c>
-      <c r="C138" t="s">
+      <c r="B139" t="s">
+        <v>309</v>
+      </c>
+      <c r="C139" t="s">
+        <v>309</v>
+      </c>
+      <c r="D139" t="s">
         <v>308</v>
       </c>
-      <c r="D138" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>309</v>
-      </c>
-      <c r="B139" t="s">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>310</v>
       </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
+        <v>311</v>
+      </c>
+      <c r="C140" t="s">
+        <v>312</v>
+      </c>
+      <c r="D140" t="s">
         <v>310</v>
       </c>
-      <c r="D139" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>311</v>
-      </c>
-      <c r="B140" t="s">
-        <v>312</v>
-      </c>
-      <c r="C140" t="s">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>313</v>
       </c>
-      <c r="D140" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B141" t="s">
         <v>314</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
+        <v>314</v>
+      </c>
+      <c r="D141" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>315</v>
       </c>
-      <c r="C141" t="s">
+      <c r="B142" t="s">
+        <v>316</v>
+      </c>
+      <c r="C142" t="s">
+        <v>317</v>
+      </c>
+      <c r="D142" t="s">
         <v>315</v>
       </c>
-      <c r="D141" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>316</v>
-      </c>
-      <c r="B142" t="s">
-        <v>317</v>
-      </c>
-      <c r="C142" t="s">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>318</v>
       </c>
-      <c r="D142" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B143" t="s">
         <v>319</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>320</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>321</v>
       </c>
-      <c r="D143" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B144" t="s">
         <v>322</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
+        <v>322</v>
+      </c>
+      <c r="D144" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>323</v>
       </c>
-      <c r="C144" t="s">
+      <c r="B145" t="s">
+        <v>324</v>
+      </c>
+      <c r="C145" t="s">
+        <v>324</v>
+      </c>
+      <c r="D145" t="s">
         <v>323</v>
       </c>
-      <c r="D144" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>324</v>
-      </c>
-      <c r="B145" t="s">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>325</v>
       </c>
-      <c r="C145" t="s">
+      <c r="B146" t="s">
+        <v>326</v>
+      </c>
+      <c r="C146" t="s">
+        <v>326</v>
+      </c>
+      <c r="D146" t="s">
         <v>325</v>
       </c>
-      <c r="D145" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>326</v>
-      </c>
-      <c r="B146" t="s">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>327</v>
       </c>
-      <c r="C146" t="s">
+      <c r="B147" t="s">
+        <v>328</v>
+      </c>
+      <c r="C147" t="s">
+        <v>328</v>
+      </c>
+      <c r="D147" t="s">
         <v>327</v>
       </c>
-      <c r="D146" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>328</v>
-      </c>
-      <c r="B147" t="s">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>329</v>
       </c>
-      <c r="C147" t="s">
+      <c r="B148" t="s">
+        <v>330</v>
+      </c>
+      <c r="C148" t="s">
+        <v>330</v>
+      </c>
+      <c r="D148" t="s">
         <v>329</v>
       </c>
-      <c r="D147" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>330</v>
-      </c>
-      <c r="B148" t="s">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>331</v>
       </c>
-      <c r="C148" t="s">
+      <c r="B149" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" t="s">
+        <v>332</v>
+      </c>
+      <c r="D149" t="s">
         <v>331</v>
       </c>
-      <c r="D148" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>332</v>
-      </c>
-      <c r="B149" t="s">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>333</v>
       </c>
-      <c r="C149" t="s">
+      <c r="B150" t="s">
+        <v>334</v>
+      </c>
+      <c r="C150" t="s">
+        <v>334</v>
+      </c>
+      <c r="D150" t="s">
         <v>333</v>
       </c>
-      <c r="D149" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>334</v>
-      </c>
-      <c r="B150" t="s">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>335</v>
       </c>
-      <c r="C150" t="s">
+      <c r="B151" t="s">
+        <v>336</v>
+      </c>
+      <c r="C151" t="s">
+        <v>336</v>
+      </c>
+      <c r="D151" t="s">
         <v>335</v>
       </c>
-      <c r="D150" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>336</v>
-      </c>
-      <c r="B151" t="s">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>337</v>
       </c>
-      <c r="C151" t="s">
+      <c r="B152" t="s">
+        <v>338</v>
+      </c>
+      <c r="C152" t="s">
+        <v>338</v>
+      </c>
+      <c r="D152" t="s">
         <v>337</v>
       </c>
-      <c r="D151" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>338</v>
-      </c>
-      <c r="B152" t="s">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>339</v>
       </c>
-      <c r="C152" t="s">
+      <c r="B153" t="s">
+        <v>340</v>
+      </c>
+      <c r="C153" t="s">
+        <v>340</v>
+      </c>
+      <c r="D153" t="s">
         <v>339</v>
       </c>
-      <c r="D152" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>340</v>
-      </c>
-      <c r="B153" t="s">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>341</v>
       </c>
-      <c r="C153" t="s">
+      <c r="B154" t="s">
+        <v>342</v>
+      </c>
+      <c r="C154" t="s">
+        <v>342</v>
+      </c>
+      <c r="D154" t="s">
         <v>341</v>
       </c>
-      <c r="D153" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>342</v>
-      </c>
-      <c r="B154" t="s">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>343</v>
       </c>
-      <c r="C154" t="s">
+      <c r="B155" t="s">
+        <v>344</v>
+      </c>
+      <c r="C155" t="s">
+        <v>344</v>
+      </c>
+      <c r="D155" t="s">
         <v>343</v>
       </c>
-      <c r="D154" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>344</v>
-      </c>
-      <c r="B155" t="s">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>345</v>
       </c>
-      <c r="C155" t="s">
+      <c r="B156" t="s">
+        <v>346</v>
+      </c>
+      <c r="C156" t="s">
+        <v>347</v>
+      </c>
+      <c r="D156" t="s">
         <v>345</v>
       </c>
-      <c r="D155" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>346</v>
-      </c>
-      <c r="B156" t="s">
-        <v>347</v>
-      </c>
-      <c r="C156" t="s">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>348</v>
       </c>
-      <c r="D156" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B157" t="s">
         <v>349</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
+        <v>349</v>
+      </c>
+      <c r="D157" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>350</v>
       </c>
-      <c r="C157" t="s">
+      <c r="B158" t="s">
+        <v>351</v>
+      </c>
+      <c r="C158" t="s">
+        <v>351</v>
+      </c>
+      <c r="D158" t="s">
         <v>350</v>
       </c>
-      <c r="D157" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>351</v>
-      </c>
-      <c r="B158" t="s">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>352</v>
       </c>
-      <c r="C158" t="s">
+      <c r="B159" t="s">
+        <v>353</v>
+      </c>
+      <c r="C159" t="s">
+        <v>353</v>
+      </c>
+      <c r="D159" t="s">
         <v>352</v>
       </c>
-      <c r="D158" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>353</v>
-      </c>
-      <c r="B159" t="s">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>354</v>
       </c>
-      <c r="C159" t="s">
+      <c r="B160" t="s">
+        <v>355</v>
+      </c>
+      <c r="C160" t="s">
+        <v>355</v>
+      </c>
+      <c r="D160" t="s">
         <v>354</v>
       </c>
-      <c r="D159" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>355</v>
-      </c>
-      <c r="B160" t="s">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>356</v>
       </c>
-      <c r="C160" t="s">
+      <c r="B161" t="s">
+        <v>357</v>
+      </c>
+      <c r="C161" t="s">
+        <v>357</v>
+      </c>
+      <c r="D161" t="s">
         <v>356</v>
       </c>
-      <c r="D160" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>357</v>
-      </c>
-      <c r="B161" t="s">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>358</v>
       </c>
-      <c r="C161" t="s">
+      <c r="B162" t="s">
+        <v>359</v>
+      </c>
+      <c r="C162" t="s">
+        <v>360</v>
+      </c>
+      <c r="D162" t="s">
         <v>358</v>
       </c>
-      <c r="D161" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>359</v>
-      </c>
-      <c r="B162" t="s">
-        <v>360</v>
-      </c>
-      <c r="C162" t="s">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>361</v>
       </c>
-      <c r="D162" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B163" t="s">
         <v>362</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>363</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>364</v>
       </c>
-      <c r="D163" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B164" t="s">
         <v>365</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
+        <v>365</v>
+      </c>
+      <c r="D164" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>366</v>
       </c>
-      <c r="C164" t="s">
+      <c r="B165" t="s">
+        <v>367</v>
+      </c>
+      <c r="C165" t="s">
+        <v>367</v>
+      </c>
+      <c r="D165" t="s">
         <v>366</v>
       </c>
-      <c r="D164" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>367</v>
-      </c>
-      <c r="B165" t="s">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>368</v>
       </c>
-      <c r="C165" t="s">
+      <c r="B166" t="s">
+        <v>369</v>
+      </c>
+      <c r="C166" t="s">
+        <v>369</v>
+      </c>
+      <c r="D166" t="s">
         <v>368</v>
       </c>
-      <c r="D165" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>369</v>
-      </c>
-      <c r="B166" t="s">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>370</v>
       </c>
-      <c r="C166" t="s">
+      <c r="B167" t="s">
+        <v>371</v>
+      </c>
+      <c r="C167" t="s">
+        <v>371</v>
+      </c>
+      <c r="D167" t="s">
         <v>370</v>
       </c>
-      <c r="D166" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>371</v>
-      </c>
-      <c r="B167" t="s">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>372</v>
       </c>
-      <c r="C167" t="s">
+      <c r="B168" t="s">
+        <v>373</v>
+      </c>
+      <c r="C168" t="s">
+        <v>373</v>
+      </c>
+      <c r="D168" t="s">
         <v>372</v>
       </c>
-      <c r="D167" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>373</v>
-      </c>
-      <c r="B168" t="s">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>374</v>
       </c>
-      <c r="C168" t="s">
+      <c r="B169" t="s">
+        <v>375</v>
+      </c>
+      <c r="C169" t="s">
+        <v>376</v>
+      </c>
+      <c r="D169" t="s">
         <v>374</v>
       </c>
-      <c r="D168" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>375</v>
-      </c>
-      <c r="B169" t="s">
-        <v>376</v>
-      </c>
-      <c r="C169" t="s">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>377</v>
       </c>
-      <c r="D169" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B170" t="s">
         <v>378</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>379</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>380</v>
       </c>
-      <c r="D170" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="B171" t="s">
         <v>381</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
+        <v>381</v>
+      </c>
+      <c r="D171" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>382</v>
       </c>
-      <c r="C171" t="s">
+      <c r="B172" t="s">
+        <v>383</v>
+      </c>
+      <c r="C172" t="s">
+        <v>383</v>
+      </c>
+      <c r="D172" t="s">
         <v>382</v>
       </c>
-      <c r="D171" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>383</v>
-      </c>
-      <c r="B172" t="s">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>384</v>
       </c>
-      <c r="C172" t="s">
+      <c r="B173" t="s">
+        <v>385</v>
+      </c>
+      <c r="C173" t="s">
+        <v>385</v>
+      </c>
+      <c r="D173" t="s">
         <v>384</v>
       </c>
-      <c r="D172" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>385</v>
-      </c>
-      <c r="B173" t="s">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>386</v>
       </c>
-      <c r="C173" t="s">
+      <c r="B174" t="s">
+        <v>387</v>
+      </c>
+      <c r="C174" t="s">
+        <v>388</v>
+      </c>
+      <c r="D174" t="s">
         <v>386</v>
       </c>
-      <c r="D173" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>387</v>
-      </c>
-      <c r="B174" t="s">
-        <v>388</v>
-      </c>
-      <c r="C174" t="s">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>389</v>
       </c>
-      <c r="D174" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B175" t="s">
         <v>390</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
+        <v>390</v>
+      </c>
+      <c r="D175" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>391</v>
       </c>
-      <c r="C175" t="s">
+      <c r="B176" t="s">
+        <v>392</v>
+      </c>
+      <c r="C176" t="s">
+        <v>392</v>
+      </c>
+      <c r="D176" t="s">
         <v>391</v>
       </c>
-      <c r="D175" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>392</v>
-      </c>
-      <c r="B176" t="s">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>393</v>
       </c>
-      <c r="C176" t="s">
+      <c r="B177" t="s">
+        <v>394</v>
+      </c>
+      <c r="C177" t="s">
+        <v>394</v>
+      </c>
+      <c r="D177" t="s">
         <v>393</v>
       </c>
-      <c r="D176" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>394</v>
-      </c>
-      <c r="B177" t="s">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>395</v>
       </c>
-      <c r="C177" t="s">
+      <c r="B178" t="s">
+        <v>396</v>
+      </c>
+      <c r="C178" t="s">
+        <v>396</v>
+      </c>
+      <c r="D178" t="s">
         <v>395</v>
       </c>
-      <c r="D177" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>397</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>398</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>398</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>399</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>400</v>
       </c>
-      <c r="C179" t="s">
-        <v>400</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="C180" t="s">
+        <v>401</v>
+      </c>
+      <c r="D180" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>401</v>
-      </c>
-      <c r="B180" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>402</v>
       </c>
-      <c r="C180" t="s">
+      <c r="B181" t="s">
         <v>403</v>
       </c>
-      <c r="D180" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="C181" t="s">
+        <v>403</v>
+      </c>
+      <c r="D181" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>404</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>405</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C182" t="s">
         <v>405</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>406</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>407</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>407</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D183" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>408</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>409</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C184" t="s">
         <v>409</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>410</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>411</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" t="s">
         <v>411</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>412</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>413</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>413</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D186" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>414</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>415</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" t="s">
         <v>415</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D187" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>416</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>417</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C188" t="s">
         <v>417</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D188" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>418</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>419</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C189" t="s">
         <v>419</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D189" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>420</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>421</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C190" t="s">
         <v>421</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D190" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>422</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>423</v>
       </c>
-      <c r="C190" t="s">
-        <v>423</v>
-      </c>
-      <c r="D190" t="s">
+      <c r="C191" t="s">
+        <v>424</v>
+      </c>
+      <c r="D191" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>424</v>
-      </c>
-      <c r="B191" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>425</v>
       </c>
-      <c r="C191" t="s">
+      <c r="B192" t="s">
         <v>426</v>
       </c>
-      <c r="D191" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="C192" t="s">
+        <v>426</v>
+      </c>
+      <c r="D192" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>427</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>428</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C193" t="s">
         <v>428</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D193" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>429</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>430</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C194" t="s">
         <v>430</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D194" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>431</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>432</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
         <v>432</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>433</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>434</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C196" t="s">
         <v>434</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D196" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>435</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>436</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C197" t="s">
         <v>436</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D197" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>437</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>438</v>
       </c>
-      <c r="C197" t="s">
-        <v>438</v>
-      </c>
-      <c r="D197" t="s">
+      <c r="C198" t="s">
+        <v>439</v>
+      </c>
+      <c r="D198" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>439</v>
-      </c>
-      <c r="B198" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>440</v>
       </c>
-      <c r="C198" t="s">
+      <c r="B199" t="s">
         <v>441</v>
       </c>
-      <c r="D198" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="C199" t="s">
+        <v>441</v>
+      </c>
+      <c r="D199" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>442</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>443</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C200" t="s">
         <v>443</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D200" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>444</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>445</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C201" t="s">
         <v>445</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D201" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>446</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>447</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C202" t="s">
         <v>447</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D202" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
         <v>448</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>449</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>449</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D203" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
         <v>450</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>451</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C204" t="s">
         <v>451</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D204" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>452</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>453</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C205" t="s">
         <v>453</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D205" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
         <v>454</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>455</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C206" t="s">
         <v>455</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D206" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
         <v>456</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>457</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
         <v>457</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D207" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
         <v>458</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>459</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C208" t="s">
         <v>459</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D208" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
         <v>460</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>461</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C209" t="s">
         <v>461</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D209" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
         <v>462</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B210" t="s">
         <v>463</v>
       </c>
-      <c r="C209" t="s">
-        <v>463</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="C210" t="s">
+        <v>464</v>
+      </c>
+      <c r="D210" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>464</v>
-      </c>
-      <c r="B210" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
         <v>465</v>
       </c>
-      <c r="C210" t="s">
+      <c r="B211" t="s">
         <v>466</v>
       </c>
-      <c r="D210" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="C211" t="s">
+        <v>466</v>
+      </c>
+      <c r="D211" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
         <v>467</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B212" t="s">
         <v>468</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C212" t="s">
         <v>468</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D212" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="B213" t="s">
         <v>470</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C213" t="s">
+        <v>470</v>
+      </c>
+      <c r="D213" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
         <v>471</v>
       </c>
-      <c r="C212" t="s">
+      <c r="B214" t="s">
+        <v>472</v>
+      </c>
+      <c r="C214" t="s">
+        <v>472</v>
+      </c>
+      <c r="D214" t="s">
         <v>471</v>
       </c>
-      <c r="D212" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>472</v>
-      </c>
-      <c r="B213" t="s">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
         <v>473</v>
       </c>
-      <c r="C213" t="s">
+      <c r="B215" t="s">
+        <v>474</v>
+      </c>
+      <c r="C215" t="s">
+        <v>474</v>
+      </c>
+      <c r="D215" t="s">
         <v>473</v>
       </c>
-      <c r="D213" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>474</v>
-      </c>
-      <c r="B214" t="s">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
         <v>475</v>
       </c>
-      <c r="C214" t="s">
+      <c r="B216" t="s">
+        <v>476</v>
+      </c>
+      <c r="C216" t="s">
+        <v>476</v>
+      </c>
+      <c r="D216" t="s">
         <v>475</v>
       </c>
-      <c r="D214" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>476</v>
-      </c>
-      <c r="B215" t="s">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
         <v>477</v>
       </c>
-      <c r="C215" t="s">
+      <c r="B217" t="s">
+        <v>478</v>
+      </c>
+      <c r="C217" t="s">
+        <v>478</v>
+      </c>
+      <c r="D217" t="s">
         <v>477</v>
       </c>
-      <c r="D215" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>478</v>
-      </c>
-      <c r="B216" t="s">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
         <v>479</v>
       </c>
-      <c r="C216" t="s">
+      <c r="B218" t="s">
+        <v>480</v>
+      </c>
+      <c r="C218" t="s">
+        <v>480</v>
+      </c>
+      <c r="D218" t="s">
         <v>479</v>
       </c>
-      <c r="D216" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>480</v>
-      </c>
-      <c r="B217" t="s">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
         <v>481</v>
       </c>
-      <c r="C217" t="s">
+      <c r="B219" t="s">
+        <v>482</v>
+      </c>
+      <c r="C219" t="s">
+        <v>482</v>
+      </c>
+      <c r="D219" t="s">
         <v>481</v>
       </c>
-      <c r="D217" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>482</v>
-      </c>
-      <c r="B218" t="s">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
         <v>483</v>
       </c>
-      <c r="C218" t="s">
+      <c r="B220" t="s">
+        <v>484</v>
+      </c>
+      <c r="C220" t="s">
+        <v>484</v>
+      </c>
+      <c r="D220" t="s">
         <v>483</v>
       </c>
-      <c r="D218" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>484</v>
-      </c>
-      <c r="B219" t="s">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
         <v>485</v>
       </c>
-      <c r="C219" t="s">
+      <c r="B221" t="s">
+        <v>486</v>
+      </c>
+      <c r="C221" t="s">
+        <v>486</v>
+      </c>
+      <c r="D221" t="s">
         <v>485</v>
       </c>
-      <c r="D219" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>486</v>
-      </c>
-      <c r="B220" t="s">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
         <v>487</v>
       </c>
-      <c r="C220" t="s">
+      <c r="B222" t="s">
+        <v>488</v>
+      </c>
+      <c r="C222" t="s">
+        <v>488</v>
+      </c>
+      <c r="D222" t="s">
         <v>487</v>
       </c>
-      <c r="D220" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>488</v>
-      </c>
-      <c r="B221" t="s">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
         <v>489</v>
       </c>
-      <c r="C221" t="s">
+      <c r="B223" t="s">
+        <v>490</v>
+      </c>
+      <c r="C223" t="s">
+        <v>490</v>
+      </c>
+      <c r="D223" t="s">
         <v>489</v>
       </c>
-      <c r="D221" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>490</v>
-      </c>
-      <c r="B222" t="s">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
         <v>491</v>
       </c>
-      <c r="C222" t="s">
+      <c r="B224" t="s">
+        <v>492</v>
+      </c>
+      <c r="C224" t="s">
+        <v>492</v>
+      </c>
+      <c r="D224" t="s">
         <v>491</v>
       </c>
-      <c r="D222" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>492</v>
-      </c>
-      <c r="B223" t="s">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
         <v>493</v>
       </c>
-      <c r="C223" t="s">
+      <c r="B225" t="s">
+        <v>494</v>
+      </c>
+      <c r="C225" t="s">
+        <v>494</v>
+      </c>
+      <c r="D225" t="s">
         <v>493</v>
       </c>
-      <c r="D223" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>494</v>
-      </c>
-      <c r="B224" t="s">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
         <v>495</v>
       </c>
-      <c r="C224" t="s">
+      <c r="B226" t="s">
+        <v>496</v>
+      </c>
+      <c r="C226" t="s">
+        <v>497</v>
+      </c>
+      <c r="D226" t="s">
         <v>495</v>
       </c>
-      <c r="D224" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>496</v>
-      </c>
-      <c r="B225" t="s">
-        <v>497</v>
-      </c>
-      <c r="C225" t="s">
-        <v>497</v>
-      </c>
-      <c r="D225" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
         <v>498</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>499</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C227" t="s">
+        <v>499</v>
+      </c>
+      <c r="D227" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>500</v>
       </c>
-      <c r="D226" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="B228" t="s">
         <v>501</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C228" t="s">
         <v>502</v>
       </c>
-      <c r="C227" t="s">
-        <v>502</v>
-      </c>
-      <c r="D227" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="D228" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>503</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>504</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C229" t="s">
+        <v>504</v>
+      </c>
+      <c r="D229" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
         <v>505</v>
       </c>
-      <c r="D228" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="B230" t="s">
         <v>506</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C230" t="s">
+        <v>506</v>
+      </c>
+      <c r="D230" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
         <v>507</v>
       </c>
-      <c r="C229" t="s">
+      <c r="B231" t="s">
+        <v>508</v>
+      </c>
+      <c r="C231" t="s">
+        <v>508</v>
+      </c>
+      <c r="D231" t="s">
         <v>507</v>
       </c>
-      <c r="D229" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>508</v>
-      </c>
-      <c r="B230" t="s">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
         <v>509</v>
       </c>
-      <c r="C230" t="s">
+      <c r="B232" t="s">
+        <v>510</v>
+      </c>
+      <c r="C232" t="s">
+        <v>510</v>
+      </c>
+      <c r="D232" t="s">
         <v>509</v>
       </c>
-      <c r="D230" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>510</v>
-      </c>
-      <c r="B231" t="s">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
         <v>511</v>
       </c>
-      <c r="C231" t="s">
+      <c r="B233" t="s">
+        <v>512</v>
+      </c>
+      <c r="C233" t="s">
+        <v>512</v>
+      </c>
+      <c r="D233" t="s">
         <v>511</v>
       </c>
-      <c r="D231" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>512</v>
-      </c>
-      <c r="B232" t="s">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
         <v>513</v>
       </c>
-      <c r="C232" t="s">
+      <c r="B234" t="s">
+        <v>514</v>
+      </c>
+      <c r="C234" t="s">
+        <v>515</v>
+      </c>
+      <c r="D234" t="s">
         <v>513</v>
       </c>
-      <c r="D232" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>514</v>
-      </c>
-      <c r="B233" t="s">
-        <v>515</v>
-      </c>
-      <c r="C233" t="s">
-        <v>515</v>
-      </c>
-      <c r="D233" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
         <v>516</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>517</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C235" t="s">
+        <v>517</v>
+      </c>
+      <c r="D235" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
         <v>518</v>
       </c>
-      <c r="D234" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="B236" t="s">
         <v>519</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C236" t="s">
         <v>520</v>
       </c>
-      <c r="C235" t="s">
-        <v>520</v>
-      </c>
-      <c r="D235" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="D236" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
         <v>521</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B237" t="s">
         <v>522</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C237" t="s">
         <v>523</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D237" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>524</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>525</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
+        <v>525</v>
+      </c>
+      <c r="D238" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>526</v>
       </c>
-      <c r="D237" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="B239" t="s">
         <v>527</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C239" t="s">
+        <v>527</v>
+      </c>
+      <c r="D239" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
         <v>528</v>
       </c>
-      <c r="C238" t="s">
+      <c r="B240" t="s">
+        <v>529</v>
+      </c>
+      <c r="C240" t="s">
+        <v>529</v>
+      </c>
+      <c r="D240" t="s">
         <v>528</v>
       </c>
-      <c r="D238" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>529</v>
-      </c>
-      <c r="B239" t="s">
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
         <v>530</v>
       </c>
-      <c r="C239" t="s">
+      <c r="B241" t="s">
+        <v>531</v>
+      </c>
+      <c r="C241" t="s">
+        <v>531</v>
+      </c>
+      <c r="D241" t="s">
         <v>530</v>
       </c>
-      <c r="D239" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>531</v>
-      </c>
-      <c r="B240" t="s">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
         <v>532</v>
       </c>
-      <c r="C240" t="s">
+      <c r="B242" t="s">
+        <v>533</v>
+      </c>
+      <c r="C242" t="s">
+        <v>534</v>
+      </c>
+      <c r="D242" t="s">
         <v>532</v>
       </c>
-      <c r="D240" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>533</v>
-      </c>
-      <c r="B241" t="s">
-        <v>534</v>
-      </c>
-      <c r="C241" t="s">
-        <v>534</v>
-      </c>
-      <c r="D241" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
         <v>535</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>536</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C243" t="s">
+        <v>536</v>
+      </c>
+      <c r="D243" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
         <v>537</v>
       </c>
-      <c r="D242" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="B244" t="s">
         <v>538</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C244" t="s">
         <v>539</v>
       </c>
-      <c r="C243" t="s">
-        <v>539</v>
-      </c>
-      <c r="D243" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="D244" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
         <v>540</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>541</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C245" t="s">
         <v>542</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D245" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
         <v>543</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B246" t="s">
         <v>544</v>
       </c>
-      <c r="C245" t="s">
-        <v>545</v>
-      </c>
-      <c r="D245" t="s">
+      <c r="C246" t="s">
+        <v>544</v>
+      </c>
+      <c r="D246" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>546</v>
-      </c>
-      <c r="B246" t="s">
-        <v>547</v>
-      </c>
-      <c r="C246" t="s">
-        <v>547</v>
-      </c>
-      <c r="D246" t="s">
-        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_FAO.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_FAO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llohi\Documents\WB\Data Portal\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29CE4F-BC9C-4C40-923C-29D57BBF5DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF1A928-7072-4E69-BF32-FA8FC9AEC8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{0C2090A7-37AE-4904-BFD0-BE4B05D4EA94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0C2090A7-37AE-4904-BFD0-BE4B05D4EA94}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="548">
   <si>
     <t>FAO_code</t>
   </si>
@@ -254,6 +254,9 @@
     <t>Congo, Dem. Rep.</t>
   </si>
   <si>
+    <t>ZAR</t>
+  </si>
+  <si>
     <t>COG</t>
   </si>
   <si>
@@ -1223,6 +1226,9 @@
     <t>Montenegro</t>
   </si>
   <si>
+    <t>MNT</t>
+  </si>
+  <si>
     <t>MNG</t>
   </si>
   <si>
@@ -1437,6 +1443,9 @@
   </si>
   <si>
     <t>Romania</t>
+  </si>
+  <si>
+    <t>ROM</t>
   </si>
   <si>
     <t>RUS</t>
@@ -1726,7 +1735,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2024,13 +2033,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDB0202-9AD7-41A7-9A9F-33202EE658ED}">
   <dimension ref="A1:D246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="G241" sqref="G241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2058,7 +2067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2100,7 +2109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2114,7 +2123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2128,7 +2137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2142,7 +2151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2156,7 +2165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2170,7 +2179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2212,7 +2221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2226,7 +2235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2240,7 +2249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2254,7 +2263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2268,7 +2277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2282,7 +2291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2310,7 +2319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2324,7 +2333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2352,7 +2361,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2366,7 +2375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2380,7 +2389,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2408,7 +2417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2436,7 +2445,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2450,7 +2459,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2461,3017 +2470,3017 @@
         <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
         <v>76</v>
       </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
         <v>80</v>
       </c>
-      <c r="C35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
         <v>83</v>
       </c>
-      <c r="C36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
         <v>85</v>
       </c>
-      <c r="C37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
         <v>87</v>
       </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
         <v>89</v>
       </c>
-      <c r="C39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
         <v>91</v>
       </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
         <v>93</v>
       </c>
-      <c r="C41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
         <v>95</v>
       </c>
-      <c r="C42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
         <v>97</v>
       </c>
-      <c r="C43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
         <v>99</v>
       </c>
-      <c r="C44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
         <v>102</v>
       </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s">
         <v>104</v>
       </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
         <v>106</v>
       </c>
-      <c r="C47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
         <v>108</v>
       </c>
-      <c r="C48" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
         <v>110</v>
       </c>
-      <c r="C49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
         <v>112</v>
       </c>
-      <c r="C50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
         <v>114</v>
       </c>
-      <c r="C51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
         <v>116</v>
       </c>
-      <c r="C52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" t="s">
         <v>118</v>
       </c>
-      <c r="C53" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" t="s">
         <v>120</v>
       </c>
-      <c r="C54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
         <v>122</v>
       </c>
-      <c r="C55" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="s">
         <v>125</v>
       </c>
-      <c r="C56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
         <v>127</v>
       </c>
-      <c r="C57" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" t="s">
         <v>129</v>
       </c>
-      <c r="C58" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" t="s">
         <v>132</v>
       </c>
-      <c r="C59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" t="s">
         <v>134</v>
       </c>
-      <c r="C60" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" t="s">
         <v>136</v>
       </c>
-      <c r="C61" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" t="s">
         <v>138</v>
       </c>
-      <c r="C62" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="s">
         <v>140</v>
       </c>
-      <c r="C63" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" t="s">
         <v>142</v>
       </c>
-      <c r="C64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" t="s">
         <v>144</v>
       </c>
-      <c r="C65" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" t="s">
         <v>146</v>
       </c>
-      <c r="C66" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" t="s">
         <v>149</v>
       </c>
-      <c r="C67" t="s">
-        <v>149</v>
-      </c>
-      <c r="D67" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" t="s">
         <v>151</v>
       </c>
-      <c r="C68" t="s">
-        <v>151</v>
-      </c>
-      <c r="D68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69" t="s">
         <v>153</v>
       </c>
-      <c r="C69" t="s">
-        <v>153</v>
-      </c>
-      <c r="D69" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" t="s">
         <v>155</v>
       </c>
-      <c r="C70" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B71" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" t="s">
         <v>157</v>
       </c>
-      <c r="C71" t="s">
-        <v>157</v>
-      </c>
-      <c r="D71" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B72" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" t="s">
         <v>159</v>
       </c>
-      <c r="C72" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B73" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" t="s">
         <v>161</v>
       </c>
-      <c r="C73" t="s">
-        <v>161</v>
-      </c>
-      <c r="D73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
         <v>163</v>
       </c>
-      <c r="C74" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" t="s">
         <v>165</v>
       </c>
-      <c r="C75" t="s">
-        <v>165</v>
-      </c>
-      <c r="D75" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" t="s">
         <v>167</v>
       </c>
-      <c r="C76" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" t="s">
         <v>169</v>
       </c>
-      <c r="C77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D77" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" t="s">
         <v>172</v>
       </c>
-      <c r="C78" t="s">
-        <v>173</v>
-      </c>
-      <c r="D78" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B79" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" t="s">
         <v>175</v>
       </c>
-      <c r="C79" t="s">
-        <v>175</v>
-      </c>
-      <c r="D79" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B80" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" t="s">
         <v>177</v>
       </c>
-      <c r="C80" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B81" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" t="s">
         <v>179</v>
       </c>
-      <c r="C81" t="s">
-        <v>180</v>
-      </c>
-      <c r="D81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" t="s">
+        <v>183</v>
+      </c>
+      <c r="D82" t="s">
         <v>182</v>
       </c>
-      <c r="C82" t="s">
-        <v>182</v>
-      </c>
-      <c r="D82" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B83" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" t="s">
         <v>184</v>
       </c>
-      <c r="C83" t="s">
-        <v>184</v>
-      </c>
-      <c r="D83" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B84" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" t="s">
         <v>186</v>
       </c>
-      <c r="C84" t="s">
-        <v>187</v>
-      </c>
-      <c r="D84" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" t="s">
         <v>189</v>
       </c>
-      <c r="C85" t="s">
-        <v>189</v>
-      </c>
-      <c r="D85" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B86" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" t="s">
         <v>191</v>
       </c>
-      <c r="C86" t="s">
-        <v>191</v>
-      </c>
-      <c r="D86" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B87" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" t="s">
         <v>193</v>
       </c>
-      <c r="C87" t="s">
-        <v>193</v>
-      </c>
-      <c r="D87" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" t="s">
         <v>195</v>
       </c>
-      <c r="C88" t="s">
-        <v>195</v>
-      </c>
-      <c r="D88" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B89" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" t="s">
         <v>197</v>
       </c>
-      <c r="C89" t="s">
-        <v>197</v>
-      </c>
-      <c r="D89" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" t="s">
         <v>199</v>
       </c>
-      <c r="C90" t="s">
-        <v>199</v>
-      </c>
-      <c r="D90" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" t="s">
         <v>201</v>
       </c>
-      <c r="C91" t="s">
-        <v>201</v>
-      </c>
-      <c r="D91" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B92" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" t="s">
         <v>203</v>
       </c>
-      <c r="C92" t="s">
-        <v>204</v>
-      </c>
-      <c r="D92" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B93" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93" t="s">
         <v>206</v>
       </c>
-      <c r="C93" t="s">
-        <v>207</v>
-      </c>
-      <c r="D93" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" t="s">
+        <v>210</v>
+      </c>
+      <c r="D94" t="s">
         <v>209</v>
       </c>
-      <c r="C94" t="s">
-        <v>209</v>
-      </c>
-      <c r="D94" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B95" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95" t="s">
         <v>211</v>
       </c>
-      <c r="C95" t="s">
-        <v>211</v>
-      </c>
-      <c r="D95" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B96" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" t="s">
         <v>213</v>
       </c>
-      <c r="C96" t="s">
-        <v>213</v>
-      </c>
-      <c r="D96" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B97" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" t="s">
+        <v>217</v>
+      </c>
+      <c r="D97" t="s">
         <v>215</v>
       </c>
-      <c r="C97" t="s">
-        <v>216</v>
-      </c>
-      <c r="D97" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B98" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" t="s">
         <v>218</v>
       </c>
-      <c r="C98" t="s">
-        <v>218</v>
-      </c>
-      <c r="D98" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B99" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" t="s">
         <v>220</v>
       </c>
-      <c r="C99" t="s">
-        <v>220</v>
-      </c>
-      <c r="D99" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B100" t="s">
+        <v>223</v>
+      </c>
+      <c r="C100" t="s">
+        <v>224</v>
+      </c>
+      <c r="D100" t="s">
         <v>222</v>
       </c>
-      <c r="C100" t="s">
-        <v>223</v>
-      </c>
-      <c r="D100" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B101" t="s">
+        <v>226</v>
+      </c>
+      <c r="C101" t="s">
+        <v>226</v>
+      </c>
+      <c r="D101" t="s">
         <v>225</v>
       </c>
-      <c r="C101" t="s">
-        <v>225</v>
-      </c>
-      <c r="D101" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B102" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" t="s">
+        <v>229</v>
+      </c>
+      <c r="D102" t="s">
         <v>227</v>
       </c>
-      <c r="C102" t="s">
-        <v>228</v>
-      </c>
-      <c r="D102" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B103" t="s">
+        <v>231</v>
+      </c>
+      <c r="C103" t="s">
+        <v>231</v>
+      </c>
+      <c r="D103" t="s">
         <v>230</v>
       </c>
-      <c r="C103" t="s">
-        <v>230</v>
-      </c>
-      <c r="D103" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B104" t="s">
+        <v>233</v>
+      </c>
+      <c r="C104" t="s">
+        <v>233</v>
+      </c>
+      <c r="D104" t="s">
         <v>232</v>
       </c>
-      <c r="C104" t="s">
-        <v>232</v>
-      </c>
-      <c r="D104" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B105" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" t="s">
+        <v>235</v>
+      </c>
+      <c r="D105" t="s">
         <v>234</v>
       </c>
-      <c r="C105" t="s">
-        <v>234</v>
-      </c>
-      <c r="D105" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B106" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" t="s">
+        <v>237</v>
+      </c>
+      <c r="D106" t="s">
         <v>236</v>
       </c>
-      <c r="C106" t="s">
-        <v>236</v>
-      </c>
-      <c r="D106" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B107" t="s">
+        <v>239</v>
+      </c>
+      <c r="C107" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" t="s">
         <v>238</v>
       </c>
-      <c r="C107" t="s">
-        <v>238</v>
-      </c>
-      <c r="D107" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B108" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" t="s">
+        <v>242</v>
+      </c>
+      <c r="D108" t="s">
         <v>240</v>
       </c>
-      <c r="C108" t="s">
-        <v>241</v>
-      </c>
-      <c r="D108" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B109" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" t="s">
+        <v>244</v>
+      </c>
+      <c r="D109" t="s">
         <v>243</v>
       </c>
-      <c r="C109" t="s">
-        <v>243</v>
-      </c>
-      <c r="D109" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B110" t="s">
+        <v>246</v>
+      </c>
+      <c r="C110" t="s">
+        <v>246</v>
+      </c>
+      <c r="D110" t="s">
         <v>245</v>
       </c>
-      <c r="C110" t="s">
-        <v>245</v>
-      </c>
-      <c r="D110" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B111" t="s">
+        <v>248</v>
+      </c>
+      <c r="C111" t="s">
+        <v>248</v>
+      </c>
+      <c r="D111" t="s">
         <v>247</v>
       </c>
-      <c r="C111" t="s">
-        <v>247</v>
-      </c>
-      <c r="D111" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B112" t="s">
+        <v>250</v>
+      </c>
+      <c r="C112" t="s">
+        <v>250</v>
+      </c>
+      <c r="D112" t="s">
         <v>249</v>
       </c>
-      <c r="C112" t="s">
-        <v>249</v>
-      </c>
-      <c r="D112" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B113" t="s">
+        <v>252</v>
+      </c>
+      <c r="C113" t="s">
+        <v>252</v>
+      </c>
+      <c r="D113" t="s">
         <v>251</v>
       </c>
-      <c r="C113" t="s">
-        <v>251</v>
-      </c>
-      <c r="D113" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B114" t="s">
+        <v>254</v>
+      </c>
+      <c r="C114" t="s">
+        <v>254</v>
+      </c>
+      <c r="D114" t="s">
         <v>253</v>
       </c>
-      <c r="C114" t="s">
-        <v>253</v>
-      </c>
-      <c r="D114" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B115" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" t="s">
+        <v>257</v>
+      </c>
+      <c r="D115" t="s">
         <v>255</v>
       </c>
-      <c r="C115" t="s">
-        <v>256</v>
-      </c>
-      <c r="D115" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B116" t="s">
+        <v>259</v>
+      </c>
+      <c r="C116" t="s">
+        <v>259</v>
+      </c>
+      <c r="D116" t="s">
         <v>258</v>
       </c>
-      <c r="C116" t="s">
-        <v>258</v>
-      </c>
-      <c r="D116" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B117" t="s">
+        <v>261</v>
+      </c>
+      <c r="C117" t="s">
+        <v>261</v>
+      </c>
+      <c r="D117" t="s">
         <v>260</v>
       </c>
-      <c r="C117" t="s">
-        <v>260</v>
-      </c>
-      <c r="D117" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B118" t="s">
+        <v>263</v>
+      </c>
+      <c r="C118" t="s">
+        <v>263</v>
+      </c>
+      <c r="D118" t="s">
         <v>262</v>
       </c>
-      <c r="C118" t="s">
-        <v>262</v>
-      </c>
-      <c r="D118" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B119" t="s">
+        <v>265</v>
+      </c>
+      <c r="C119" t="s">
+        <v>266</v>
+      </c>
+      <c r="D119" t="s">
         <v>264</v>
       </c>
-      <c r="C119" t="s">
-        <v>265</v>
-      </c>
-      <c r="D119" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B120" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" t="s">
+        <v>268</v>
+      </c>
+      <c r="D120" t="s">
         <v>267</v>
       </c>
-      <c r="C120" t="s">
-        <v>267</v>
-      </c>
-      <c r="D120" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B121" t="s">
+        <v>270</v>
+      </c>
+      <c r="C121" t="s">
+        <v>270</v>
+      </c>
+      <c r="D121" t="s">
         <v>269</v>
       </c>
-      <c r="C121" t="s">
-        <v>269</v>
-      </c>
-      <c r="D121" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B122" t="s">
+        <v>272</v>
+      </c>
+      <c r="C122" t="s">
+        <v>272</v>
+      </c>
+      <c r="D122" t="s">
         <v>271</v>
       </c>
-      <c r="C122" t="s">
-        <v>271</v>
-      </c>
-      <c r="D122" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B123" t="s">
+        <v>274</v>
+      </c>
+      <c r="C123" t="s">
+        <v>274</v>
+      </c>
+      <c r="D123" t="s">
         <v>273</v>
       </c>
-      <c r="C123" t="s">
-        <v>273</v>
-      </c>
-      <c r="D123" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B124" t="s">
+        <v>276</v>
+      </c>
+      <c r="C124" t="s">
+        <v>276</v>
+      </c>
+      <c r="D124" t="s">
         <v>275</v>
       </c>
-      <c r="C124" t="s">
-        <v>275</v>
-      </c>
-      <c r="D124" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B125" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" t="s">
+        <v>278</v>
+      </c>
+      <c r="D125" t="s">
         <v>277</v>
       </c>
-      <c r="C125" t="s">
-        <v>277</v>
-      </c>
-      <c r="D125" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B126" t="s">
+        <v>280</v>
+      </c>
+      <c r="C126" t="s">
+        <v>281</v>
+      </c>
+      <c r="D126" t="s">
         <v>279</v>
       </c>
-      <c r="C126" t="s">
-        <v>280</v>
-      </c>
-      <c r="D126" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B127" t="s">
+        <v>283</v>
+      </c>
+      <c r="C127" t="s">
+        <v>283</v>
+      </c>
+      <c r="D127" t="s">
         <v>282</v>
       </c>
-      <c r="C127" t="s">
-        <v>282</v>
-      </c>
-      <c r="D127" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B128" t="s">
+        <v>285</v>
+      </c>
+      <c r="C128" t="s">
+        <v>285</v>
+      </c>
+      <c r="D128" t="s">
         <v>284</v>
       </c>
-      <c r="C128" t="s">
-        <v>284</v>
-      </c>
-      <c r="D128" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B129" t="s">
+        <v>287</v>
+      </c>
+      <c r="C129" t="s">
+        <v>288</v>
+      </c>
+      <c r="D129" t="s">
         <v>286</v>
       </c>
-      <c r="C129" t="s">
-        <v>287</v>
-      </c>
-      <c r="D129" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B130" t="s">
+        <v>290</v>
+      </c>
+      <c r="C130" t="s">
+        <v>290</v>
+      </c>
+      <c r="D130" t="s">
         <v>289</v>
       </c>
-      <c r="C130" t="s">
-        <v>289</v>
-      </c>
-      <c r="D130" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B131" t="s">
+        <v>292</v>
+      </c>
+      <c r="C131" t="s">
+        <v>292</v>
+      </c>
+      <c r="D131" t="s">
         <v>291</v>
       </c>
-      <c r="C131" t="s">
-        <v>291</v>
-      </c>
-      <c r="D131" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B132" t="s">
+        <v>294</v>
+      </c>
+      <c r="C132" t="s">
+        <v>294</v>
+      </c>
+      <c r="D132" t="s">
         <v>293</v>
       </c>
-      <c r="C132" t="s">
-        <v>293</v>
-      </c>
-      <c r="D132" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B133" t="s">
+        <v>296</v>
+      </c>
+      <c r="C133" t="s">
+        <v>297</v>
+      </c>
+      <c r="D133" t="s">
         <v>295</v>
       </c>
-      <c r="C133" t="s">
-        <v>296</v>
-      </c>
-      <c r="D133" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B134" t="s">
+        <v>299</v>
+      </c>
+      <c r="C134" t="s">
+        <v>299</v>
+      </c>
+      <c r="D134" t="s">
         <v>298</v>
       </c>
-      <c r="C134" t="s">
-        <v>298</v>
-      </c>
-      <c r="D134" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B135" t="s">
+        <v>301</v>
+      </c>
+      <c r="C135" t="s">
+        <v>301</v>
+      </c>
+      <c r="D135" t="s">
         <v>300</v>
       </c>
-      <c r="C135" t="s">
-        <v>300</v>
-      </c>
-      <c r="D135" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B136" t="s">
+        <v>303</v>
+      </c>
+      <c r="C136" t="s">
+        <v>303</v>
+      </c>
+      <c r="D136" t="s">
         <v>302</v>
       </c>
-      <c r="C136" t="s">
-        <v>302</v>
-      </c>
-      <c r="D136" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B137" t="s">
+        <v>305</v>
+      </c>
+      <c r="C137" t="s">
+        <v>306</v>
+      </c>
+      <c r="D137" t="s">
         <v>304</v>
       </c>
-      <c r="C137" t="s">
-        <v>305</v>
-      </c>
-      <c r="D137" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B138" t="s">
+        <v>308</v>
+      </c>
+      <c r="C138" t="s">
+        <v>308</v>
+      </c>
+      <c r="D138" t="s">
         <v>307</v>
       </c>
-      <c r="C138" t="s">
-        <v>307</v>
-      </c>
-      <c r="D138" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B139" t="s">
+        <v>310</v>
+      </c>
+      <c r="C139" t="s">
+        <v>310</v>
+      </c>
+      <c r="D139" t="s">
         <v>309</v>
       </c>
-      <c r="C139" t="s">
-        <v>309</v>
-      </c>
-      <c r="D139" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B140" t="s">
+        <v>312</v>
+      </c>
+      <c r="C140" t="s">
+        <v>313</v>
+      </c>
+      <c r="D140" t="s">
         <v>311</v>
       </c>
-      <c r="C140" t="s">
-        <v>312</v>
-      </c>
-      <c r="D140" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B141" t="s">
+        <v>315</v>
+      </c>
+      <c r="C141" t="s">
+        <v>315</v>
+      </c>
+      <c r="D141" t="s">
         <v>314</v>
       </c>
-      <c r="C141" t="s">
-        <v>314</v>
-      </c>
-      <c r="D141" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B142" t="s">
+        <v>317</v>
+      </c>
+      <c r="C142" t="s">
+        <v>318</v>
+      </c>
+      <c r="D142" t="s">
         <v>316</v>
       </c>
-      <c r="C142" t="s">
-        <v>317</v>
-      </c>
-      <c r="D142" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B143" t="s">
+        <v>320</v>
+      </c>
+      <c r="C143" t="s">
+        <v>321</v>
+      </c>
+      <c r="D143" t="s">
         <v>319</v>
       </c>
-      <c r="C143" t="s">
-        <v>320</v>
-      </c>
-      <c r="D143" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B144" t="s">
+        <v>323</v>
+      </c>
+      <c r="C144" t="s">
+        <v>323</v>
+      </c>
+      <c r="D144" t="s">
         <v>322</v>
       </c>
-      <c r="C144" t="s">
-        <v>322</v>
-      </c>
-      <c r="D144" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B145" t="s">
+        <v>325</v>
+      </c>
+      <c r="C145" t="s">
+        <v>325</v>
+      </c>
+      <c r="D145" t="s">
         <v>324</v>
       </c>
-      <c r="C145" t="s">
-        <v>324</v>
-      </c>
-      <c r="D145" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B146" t="s">
+        <v>327</v>
+      </c>
+      <c r="C146" t="s">
+        <v>327</v>
+      </c>
+      <c r="D146" t="s">
         <v>326</v>
       </c>
-      <c r="C146" t="s">
-        <v>326</v>
-      </c>
-      <c r="D146" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B147" t="s">
+        <v>329</v>
+      </c>
+      <c r="C147" t="s">
+        <v>329</v>
+      </c>
+      <c r="D147" t="s">
         <v>328</v>
       </c>
-      <c r="C147" t="s">
-        <v>328</v>
-      </c>
-      <c r="D147" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B148" t="s">
+        <v>331</v>
+      </c>
+      <c r="C148" t="s">
+        <v>331</v>
+      </c>
+      <c r="D148" t="s">
         <v>330</v>
       </c>
-      <c r="C148" t="s">
-        <v>330</v>
-      </c>
-      <c r="D148" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B149" t="s">
+        <v>333</v>
+      </c>
+      <c r="C149" t="s">
+        <v>333</v>
+      </c>
+      <c r="D149" t="s">
         <v>332</v>
       </c>
-      <c r="C149" t="s">
-        <v>332</v>
-      </c>
-      <c r="D149" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B150" t="s">
+        <v>335</v>
+      </c>
+      <c r="C150" t="s">
+        <v>335</v>
+      </c>
+      <c r="D150" t="s">
         <v>334</v>
       </c>
-      <c r="C150" t="s">
-        <v>334</v>
-      </c>
-      <c r="D150" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B151" t="s">
+        <v>337</v>
+      </c>
+      <c r="C151" t="s">
+        <v>337</v>
+      </c>
+      <c r="D151" t="s">
         <v>336</v>
       </c>
-      <c r="C151" t="s">
-        <v>336</v>
-      </c>
-      <c r="D151" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B152" t="s">
+        <v>339</v>
+      </c>
+      <c r="C152" t="s">
+        <v>339</v>
+      </c>
+      <c r="D152" t="s">
         <v>338</v>
       </c>
-      <c r="C152" t="s">
-        <v>338</v>
-      </c>
-      <c r="D152" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B153" t="s">
+        <v>341</v>
+      </c>
+      <c r="C153" t="s">
+        <v>341</v>
+      </c>
+      <c r="D153" t="s">
         <v>340</v>
       </c>
-      <c r="C153" t="s">
-        <v>340</v>
-      </c>
-      <c r="D153" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B154" t="s">
+        <v>343</v>
+      </c>
+      <c r="C154" t="s">
+        <v>343</v>
+      </c>
+      <c r="D154" t="s">
         <v>342</v>
       </c>
-      <c r="C154" t="s">
-        <v>342</v>
-      </c>
-      <c r="D154" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B155" t="s">
+        <v>345</v>
+      </c>
+      <c r="C155" t="s">
+        <v>345</v>
+      </c>
+      <c r="D155" t="s">
         <v>344</v>
       </c>
-      <c r="C155" t="s">
-        <v>344</v>
-      </c>
-      <c r="D155" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B156" t="s">
+        <v>347</v>
+      </c>
+      <c r="C156" t="s">
+        <v>348</v>
+      </c>
+      <c r="D156" t="s">
         <v>346</v>
       </c>
-      <c r="C156" t="s">
-        <v>347</v>
-      </c>
-      <c r="D156" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B157" t="s">
+        <v>350</v>
+      </c>
+      <c r="C157" t="s">
+        <v>350</v>
+      </c>
+      <c r="D157" t="s">
         <v>349</v>
       </c>
-      <c r="C157" t="s">
-        <v>349</v>
-      </c>
-      <c r="D157" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B158" t="s">
+        <v>352</v>
+      </c>
+      <c r="C158" t="s">
+        <v>352</v>
+      </c>
+      <c r="D158" t="s">
         <v>351</v>
       </c>
-      <c r="C158" t="s">
-        <v>351</v>
-      </c>
-      <c r="D158" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B159" t="s">
+        <v>354</v>
+      </c>
+      <c r="C159" t="s">
+        <v>354</v>
+      </c>
+      <c r="D159" t="s">
         <v>353</v>
       </c>
-      <c r="C159" t="s">
-        <v>353</v>
-      </c>
-      <c r="D159" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B160" t="s">
+        <v>356</v>
+      </c>
+      <c r="C160" t="s">
+        <v>356</v>
+      </c>
+      <c r="D160" t="s">
         <v>355</v>
       </c>
-      <c r="C160" t="s">
-        <v>355</v>
-      </c>
-      <c r="D160" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B161" t="s">
+        <v>358</v>
+      </c>
+      <c r="C161" t="s">
+        <v>358</v>
+      </c>
+      <c r="D161" t="s">
         <v>357</v>
       </c>
-      <c r="C161" t="s">
-        <v>357</v>
-      </c>
-      <c r="D161" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B162" t="s">
+        <v>360</v>
+      </c>
+      <c r="C162" t="s">
+        <v>361</v>
+      </c>
+      <c r="D162" t="s">
         <v>359</v>
       </c>
-      <c r="C162" t="s">
-        <v>360</v>
-      </c>
-      <c r="D162" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B163" t="s">
+        <v>363</v>
+      </c>
+      <c r="C163" t="s">
+        <v>364</v>
+      </c>
+      <c r="D163" t="s">
         <v>362</v>
       </c>
-      <c r="C163" t="s">
-        <v>363</v>
-      </c>
-      <c r="D163" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B164" t="s">
+        <v>366</v>
+      </c>
+      <c r="C164" t="s">
+        <v>366</v>
+      </c>
+      <c r="D164" t="s">
         <v>365</v>
       </c>
-      <c r="C164" t="s">
-        <v>365</v>
-      </c>
-      <c r="D164" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B165" t="s">
+        <v>368</v>
+      </c>
+      <c r="C165" t="s">
+        <v>368</v>
+      </c>
+      <c r="D165" t="s">
         <v>367</v>
       </c>
-      <c r="C165" t="s">
-        <v>367</v>
-      </c>
-      <c r="D165" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B166" t="s">
+        <v>370</v>
+      </c>
+      <c r="C166" t="s">
+        <v>370</v>
+      </c>
+      <c r="D166" t="s">
         <v>369</v>
       </c>
-      <c r="C166" t="s">
-        <v>369</v>
-      </c>
-      <c r="D166" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B167" t="s">
+        <v>372</v>
+      </c>
+      <c r="C167" t="s">
+        <v>372</v>
+      </c>
+      <c r="D167" t="s">
         <v>371</v>
       </c>
-      <c r="C167" t="s">
-        <v>371</v>
-      </c>
-      <c r="D167" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B168" t="s">
+        <v>374</v>
+      </c>
+      <c r="C168" t="s">
+        <v>374</v>
+      </c>
+      <c r="D168" t="s">
         <v>373</v>
       </c>
-      <c r="C168" t="s">
-        <v>373</v>
-      </c>
-      <c r="D168" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B169" t="s">
+        <v>376</v>
+      </c>
+      <c r="C169" t="s">
+        <v>377</v>
+      </c>
+      <c r="D169" t="s">
         <v>375</v>
       </c>
-      <c r="C169" t="s">
-        <v>376</v>
-      </c>
-      <c r="D169" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B170" t="s">
+        <v>379</v>
+      </c>
+      <c r="C170" t="s">
+        <v>380</v>
+      </c>
+      <c r="D170" t="s">
         <v>378</v>
       </c>
-      <c r="C170" t="s">
-        <v>379</v>
-      </c>
-      <c r="D170" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B171" t="s">
+        <v>382</v>
+      </c>
+      <c r="C171" t="s">
+        <v>382</v>
+      </c>
+      <c r="D171" t="s">
         <v>381</v>
       </c>
-      <c r="C171" t="s">
-        <v>381</v>
-      </c>
-      <c r="D171" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B172" t="s">
+        <v>384</v>
+      </c>
+      <c r="C172" t="s">
+        <v>384</v>
+      </c>
+      <c r="D172" t="s">
         <v>383</v>
       </c>
-      <c r="C172" t="s">
-        <v>383</v>
-      </c>
-      <c r="D172" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B173" t="s">
+        <v>386</v>
+      </c>
+      <c r="C173" t="s">
+        <v>386</v>
+      </c>
+      <c r="D173" t="s">
         <v>385</v>
       </c>
-      <c r="C173" t="s">
-        <v>385</v>
-      </c>
-      <c r="D173" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B174" t="s">
+        <v>388</v>
+      </c>
+      <c r="C174" t="s">
+        <v>389</v>
+      </c>
+      <c r="D174" t="s">
         <v>387</v>
       </c>
-      <c r="C174" t="s">
-        <v>388</v>
-      </c>
-      <c r="D174" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B175" t="s">
+        <v>391</v>
+      </c>
+      <c r="C175" t="s">
+        <v>391</v>
+      </c>
+      <c r="D175" t="s">
         <v>390</v>
       </c>
-      <c r="C175" t="s">
-        <v>390</v>
-      </c>
-      <c r="D175" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B176" t="s">
+        <v>393</v>
+      </c>
+      <c r="C176" t="s">
+        <v>393</v>
+      </c>
+      <c r="D176" t="s">
         <v>392</v>
       </c>
-      <c r="C176" t="s">
-        <v>392</v>
-      </c>
-      <c r="D176" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B177" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C177" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D177" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B178" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C178" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D178" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B179" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C179" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D179" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B180" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C180" t="s">
+        <v>403</v>
+      </c>
+      <c r="D180" t="s">
         <v>401</v>
       </c>
-      <c r="D180" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B181" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C181" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D181" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B182" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C182" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D182" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B183" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C183" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D183" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B184" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C184" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D184" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B185" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C185" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D185" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B186" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C186" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D186" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B187" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C187" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D187" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B188" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C188" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D188" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B189" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C189" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D189" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B190" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C190" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D190" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B191" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C191" t="s">
+        <v>426</v>
+      </c>
+      <c r="D191" t="s">
         <v>424</v>
       </c>
-      <c r="D191" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B192" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C192" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D192" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B193" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C193" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D193" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B194" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C194" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D194" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B195" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C195" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D195" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B196" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C196" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D196" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B197" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C197" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D197" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B198" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C198" t="s">
+        <v>441</v>
+      </c>
+      <c r="D198" t="s">
         <v>439</v>
       </c>
-      <c r="D198" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B199" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C199" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D199" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B200" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C200" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D200" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B201" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C201" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D201" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B202" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C202" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D202" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B203" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C203" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D203" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B204" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C204" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D204" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B205" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C205" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D205" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B206" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C206" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D206" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B207" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C207" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D207" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B208" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C208" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D208" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B209" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C209" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D209" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B210" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C210" t="s">
+        <v>466</v>
+      </c>
+      <c r="D210" t="s">
         <v>464</v>
       </c>
-      <c r="D210" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B211" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C211" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D211" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B212" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C212" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D212" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B213" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C213" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D213" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B214" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C214" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D214" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B215" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C215" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D215" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B216" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C216" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D216" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B217" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C217" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D217" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B218" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C218" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D218" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B219" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C219" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D219" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B220" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C220" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D220" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B221" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C221" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D221" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B222" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C222" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D222" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B223" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C223" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D223" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B224" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C224" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D224" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B225" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C225" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D225" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B226" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C226" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D226" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B227" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C227" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D227" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B228" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C228" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D228" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B229" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C229" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D229" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B230" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C230" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D230" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B231" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C231" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D231" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B232" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C232" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D232" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B233" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C233" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D233" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B234" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C234" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D234" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B235" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C235" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D235" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B236" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C236" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D236" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B237" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C237" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D237" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B238" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C238" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D238" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B239" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C239" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D239" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B240" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C240" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D240" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B241" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C241" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D241" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B242" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C242" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D242" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B243" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C243" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D243" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B244" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C244" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D244" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B245" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C245" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D245" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B246" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C246" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D246" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
